--- a/Ma tran thu the.xlsx
+++ b/Ma tran thu the.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A7:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ma tran thu the.xlsx
+++ b/Ma tran thu the.xlsx
@@ -426,7 +426,7 @@
   <dimension ref="A7:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
